--- a/programa.xlsx
+++ b/programa.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="30" windowWidth="28515" windowHeight="13350"/>
@@ -11,7 +11,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -72,9 +72,6 @@
     <t>Estadística y sentido común</t>
   </si>
   <si>
-    <t>Inferencia Bayesiana</t>
-  </si>
-  <si>
     <t>Reproducibilidad en investigación</t>
   </si>
   <si>
@@ -136,13 +133,16 @@
   </si>
   <si>
     <t>any</t>
+  </si>
+  <si>
+    <t>Estadística Bayesiana</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,7 +268,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -303,7 +302,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -479,14 +477,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="34.28515625" customWidth="1"/>
     <col min="3" max="3" width="27.42578125" customWidth="1"/>
@@ -494,12 +492,12 @@
     <col min="5" max="7" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -511,13 +509,13 @@
         <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -531,18 +529,18 @@
         <v>44279</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2" s="1">
         <v>2021</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -551,18 +549,18 @@
         <v>44301</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G3" s="1">
         <v>2021</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -571,18 +569,18 @@
         <v>44329</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G4" s="1">
         <v>2021</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -591,18 +589,18 @@
         <v>44336</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G5" s="1">
         <v>2021</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -611,13 +609,13 @@
         <v>44357</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G6" s="1">
         <v>2021</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
@@ -631,13 +629,13 @@
         <v>44364</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G7" s="1">
         <v>2021</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
@@ -651,13 +649,13 @@
         <v>44392</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G8" s="1">
         <v>2021</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>8</v>
       </c>
@@ -674,7 +672,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>9</v>
       </c>
@@ -691,12 +689,12 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>15</v>
@@ -705,77 +703,77 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G12" s="1">
         <v>2022</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
         <v>32</v>
       </c>
-      <c r="C13" t="s">
-        <v>33</v>
-      </c>
       <c r="F13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G13" s="1">
         <v>2022</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G14" s="1">
         <v>2022</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G15" s="1">
         <v>2022</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G16" s="1">
         <v>2022</v>
@@ -788,24 +786,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/programa.xlsx
+++ b/programa.xlsx
@@ -481,7 +481,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -664,6 +664,9 @@
       </c>
       <c r="C9" t="s">
         <v>10</v>
+      </c>
+      <c r="D9" s="2">
+        <v>44497</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>11</v>

--- a/programa.xlsx
+++ b/programa.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="30" windowWidth="28515" windowHeight="13350"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
   <si>
     <t>Ponente</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Guillem Pera</t>
   </si>
   <si>
-    <t>Octubre</t>
-  </si>
-  <si>
     <t>Métodos de matching</t>
   </si>
   <si>
@@ -61,9 +58,6 @@
   </si>
   <si>
     <t>Noviembre</t>
-  </si>
-  <si>
-    <t>Diciembre</t>
   </si>
   <si>
     <t>mes</t>
@@ -141,8 +135,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,6 +262,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -302,6 +297,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -477,14 +473,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="34.28515625" customWidth="1"/>
     <col min="3" max="3" width="27.42578125" customWidth="1"/>
@@ -492,12 +488,12 @@
     <col min="5" max="7" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -506,21 +502,21 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -529,18 +525,18 @@
         <v>44279</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G2" s="1">
         <v>2021</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -549,18 +545,18 @@
         <v>44301</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G3" s="1">
         <v>2021</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -569,18 +565,18 @@
         <v>44329</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G4" s="1">
         <v>2021</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -589,18 +585,18 @@
         <v>44336</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G5" s="1">
         <v>2021</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -609,13 +605,13 @@
         <v>44357</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G6" s="1">
         <v>2021</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -629,13 +625,13 @@
         <v>44364</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G7" s="1">
         <v>2021</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -649,13 +645,13 @@
         <v>44392</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G8" s="1">
         <v>2021</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -666,117 +662,111 @@
         <v>10</v>
       </c>
       <c r="D9" s="2">
-        <v>44497</v>
+        <v>44511</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G9" s="1">
         <v>2021</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
         <v>12</v>
       </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="G10" s="1">
         <v>2021</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G11" s="1">
         <v>2021</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G12" s="1">
         <v>2022</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="G13" s="1">
         <v>2022</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G14" s="1">
         <v>2022</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G15" s="1">
         <v>2022</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G16" s="1">
         <v>2022</v>
@@ -789,24 +779,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
